--- a/src/main/resources/formats/format.xlsx
+++ b/src/main/resources/formats/format.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\noriyuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\noriyuki\Desktop\json-diff\src\main\resources\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9536597C-354D-4C16-B34E-6AAA0E3753D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B92FF1-79DC-47B4-8152-C8770BDE30CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="2130" windowWidth="23910" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="TESTNAME">Sheet1!$E$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>AAA</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +39,18 @@
   </si>
   <si>
     <t>CCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZZZ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -43,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +68,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -79,8 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -361,24 +389,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
